--- a/Abilities.xlsx
+++ b/Abilities.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Games\Flash Games\Perkinites v2 Art\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="16155" windowHeight="8445"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="263">
   <si>
     <t>Name</t>
   </si>
@@ -769,6 +774,42 @@
   </si>
   <si>
     <t>Rising Sun</t>
+  </si>
+  <si>
+    <t>Aoife M.</t>
+  </si>
+  <si>
+    <t>Decapitation</t>
+  </si>
+  <si>
+    <t>Invincibility</t>
+  </si>
+  <si>
+    <t>One hit kill</t>
+  </si>
+  <si>
+    <t>heal any wounds and regenerate lost limbs</t>
+  </si>
+  <si>
+    <t>Her costume</t>
+  </si>
+  <si>
+    <t>Some sort of ninja garb, with vambraces and a katana</t>
+  </si>
+  <si>
+    <t>Shelby M.</t>
+  </si>
+  <si>
+    <t>jeans and a shirt</t>
+  </si>
+  <si>
+    <t>Smiling</t>
+  </si>
+  <si>
+    <t>Dancer</t>
+  </si>
+  <si>
+    <t>Gives a shield of happiness</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1034,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1128,6 +1169,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1674,6 +1717,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2274,7 +2320,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B2:AF74" tableType="xml" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" dataCellStyle="20% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B2:AF80" tableType="xml" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" dataCellStyle="20% - Accent1">
   <tableColumns count="31">
     <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="30" dataCellStyle="20% - Accent1">
       <xmlColumnPr mapId="45" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
@@ -2415,7 +2461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2450,7 +2496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2659,11 +2705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG86"/>
+  <dimension ref="A1:AG92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B23" sqref="B23"/>
+      <selection pane="topRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5320,504 +5366,486 @@
       <c r="AE58" s="13"/>
       <c r="AF58" s="14"/>
     </row>
-    <row r="59" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="B59" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="59"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="59"/>
-      <c r="Y59" s="59"/>
-      <c r="Z59" s="59"/>
-      <c r="AA59" s="59"/>
-      <c r="AB59" s="59"/>
-      <c r="AC59" s="59"/>
-      <c r="AD59" s="59"/>
-      <c r="AE59" s="59"/>
-      <c r="AF59" s="59"/>
-    </row>
-    <row r="60" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="59"/>
-      <c r="S60" s="59"/>
-      <c r="T60" s="59"/>
-      <c r="U60" s="59"/>
-      <c r="V60" s="59"/>
-      <c r="W60" s="59"/>
-      <c r="X60" s="59"/>
-      <c r="Y60" s="59"/>
-      <c r="Z60" s="59"/>
-      <c r="AA60" s="59"/>
-      <c r="AB60" s="59"/>
-      <c r="AC60" s="59"/>
-      <c r="AD60" s="59"/>
-      <c r="AE60" s="59"/>
-      <c r="AF60" s="59"/>
-    </row>
-    <row r="61" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="61" t="s">
-        <v>226</v>
-      </c>
+    <row r="59" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="13"/>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="13"/>
+      <c r="AE59" s="13"/>
+      <c r="AF59" s="14"/>
+    </row>
+    <row r="60" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="13"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="13"/>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="13"/>
+      <c r="AE60" s="13"/>
+      <c r="AF60" s="14"/>
+    </row>
+    <row r="61" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="13"/>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="13"/>
+      <c r="AE61" s="13"/>
+      <c r="AF61" s="14"/>
     </row>
     <row r="62" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="B62" s="52" t="s">
-        <v>224</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="53"/>
       <c r="D62" s="61" t="s">
-        <v>227</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="59"/>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="59"/>
+      <c r="S62" s="59"/>
+      <c r="T62" s="59"/>
+      <c r="U62" s="59"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="59"/>
+      <c r="X62" s="59"/>
+      <c r="Y62" s="59"/>
+      <c r="Z62" s="59"/>
+      <c r="AA62" s="59"/>
+      <c r="AB62" s="59"/>
+      <c r="AC62" s="59"/>
+      <c r="AD62" s="59"/>
+      <c r="AE62" s="59"/>
+      <c r="AF62" s="59"/>
     </row>
     <row r="63" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="B63" s="53"/>
-      <c r="D63" s="61"/>
+        <v>212</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="53"/>
+      <c r="D63" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="59"/>
+      <c r="S63" s="59"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="59"/>
+      <c r="Y63" s="59"/>
+      <c r="Z63" s="59"/>
+      <c r="AA63" s="59"/>
+      <c r="AB63" s="59"/>
+      <c r="AC63" s="59"/>
+      <c r="AD63" s="59"/>
+      <c r="AE63" s="59"/>
+      <c r="AF63" s="59"/>
     </row>
     <row r="64" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="D64" s="61"/>
+        <v>223</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="61" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="65" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="B65" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="D65" s="63" t="s">
-        <v>233</v>
+        <v>223</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" s="61" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="53"/>
+      <c r="D66" s="61"/>
+    </row>
+    <row r="67" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" s="61"/>
+    </row>
+    <row r="68" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="B66" s="62" t="s">
+      <c r="B68" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" s="63" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D66" s="63" t="s">
+      <c r="D69" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="AF66" s="62"/>
-    </row>
-    <row r="67" spans="1:32" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
+      <c r="AF69" s="62"/>
+    </row>
+    <row r="70" spans="1:32" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B70" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="C67" s="52"/>
-      <c r="D67" s="63" t="s">
+      <c r="C70" s="52"/>
+      <c r="D70" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="52"/>
-      <c r="W67" s="52"/>
-      <c r="X67" s="52"/>
-      <c r="Y67" s="52"/>
-      <c r="Z67" s="52"/>
-      <c r="AA67" s="52"/>
-      <c r="AB67" s="52"/>
-      <c r="AC67" s="52"/>
-      <c r="AD67" s="52"/>
-      <c r="AE67" s="52"/>
-      <c r="AF67" s="62"/>
-    </row>
-    <row r="68" spans="1:32" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="52"/>
+      <c r="R70" s="52"/>
+      <c r="S70" s="52"/>
+      <c r="T70" s="52"/>
+      <c r="U70" s="52"/>
+      <c r="V70" s="52"/>
+      <c r="W70" s="52"/>
+      <c r="X70" s="52"/>
+      <c r="Y70" s="52"/>
+      <c r="Z70" s="52"/>
+      <c r="AA70" s="52"/>
+      <c r="AB70" s="52"/>
+      <c r="AC70" s="52"/>
+      <c r="AD70" s="52"/>
+      <c r="AE70" s="52"/>
+      <c r="AF70" s="62"/>
+    </row>
+    <row r="71" spans="1:32" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="B68" s="62" t="s">
+      <c r="B71" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="C68" s="52"/>
-      <c r="D68" s="63" t="s">
+      <c r="C71" s="52"/>
+      <c r="D71" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="52"/>
-      <c r="U68" s="52"/>
-      <c r="V68" s="52"/>
-      <c r="W68" s="52"/>
-      <c r="X68" s="52"/>
-      <c r="Y68" s="52"/>
-      <c r="Z68" s="52"/>
-      <c r="AA68" s="52"/>
-      <c r="AB68" s="52"/>
-      <c r="AC68" s="52"/>
-      <c r="AD68" s="52"/>
-      <c r="AE68" s="52"/>
-      <c r="AF68" s="62"/>
-    </row>
-    <row r="69" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="12">
-        <v>1</v>
-      </c>
-      <c r="F69" s="12">
-        <v>400</v>
-      </c>
-      <c r="G69" s="13">
-        <v>48</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="13">
-        <v>20</v>
-      </c>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="13"/>
-      <c r="AA69" s="13"/>
-      <c r="AB69" s="13"/>
-      <c r="AC69" s="13"/>
-      <c r="AD69" s="13"/>
-      <c r="AE69" s="13"/>
-      <c r="AF69" s="14"/>
-    </row>
-    <row r="70" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="12">
-        <v>1</v>
-      </c>
-      <c r="F70" s="12">
-        <v>400</v>
-      </c>
-      <c r="G70" s="13">
-        <v>48</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="13">
-        <v>40</v>
-      </c>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="13"/>
-      <c r="W70" s="13"/>
-      <c r="X70" s="13"/>
-      <c r="Y70" s="13"/>
-      <c r="Z70" s="13"/>
-      <c r="AA70" s="13"/>
-      <c r="AB70" s="13"/>
-      <c r="AC70" s="13"/>
-      <c r="AD70" s="13"/>
-      <c r="AE70" s="13"/>
-      <c r="AF70" s="14"/>
-    </row>
-    <row r="71" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="17">
-        <v>0</v>
-      </c>
-      <c r="F71" s="18">
-        <v>0</v>
-      </c>
-      <c r="G71" s="15">
-        <v>0</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="15">
-        <v>0</v>
-      </c>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
-      <c r="U71" s="13"/>
-      <c r="V71" s="13"/>
-      <c r="W71" s="13"/>
-      <c r="X71" s="13"/>
-      <c r="Y71" s="13"/>
-      <c r="Z71" s="13"/>
-      <c r="AA71" s="13"/>
-      <c r="AB71" s="13"/>
-      <c r="AC71" s="13"/>
-      <c r="AD71" s="13"/>
-      <c r="AE71" s="13"/>
-      <c r="AF71" s="14"/>
-    </row>
-    <row r="72" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="13"/>
-      <c r="X72" s="13"/>
-      <c r="Y72" s="13"/>
-      <c r="Z72" s="13"/>
-      <c r="AA72" s="13"/>
-      <c r="AB72" s="13"/>
-      <c r="AC72" s="13"/>
-      <c r="AD72" s="13"/>
-      <c r="AE72" s="13"/>
-      <c r="AF72" s="14"/>
-    </row>
-    <row r="73" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="13"/>
-      <c r="X73" s="13"/>
-      <c r="Y73" s="13"/>
-      <c r="Z73" s="13"/>
-      <c r="AA73" s="13"/>
-      <c r="AB73" s="13"/>
-      <c r="AC73" s="13"/>
-      <c r="AD73" s="13"/>
-      <c r="AE73" s="13"/>
-      <c r="AF73" s="14"/>
-    </row>
-    <row r="74" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13"/>
-      <c r="Z74" s="13"/>
-      <c r="AA74" s="13"/>
-      <c r="AB74" s="13"/>
-      <c r="AC74" s="13"/>
-      <c r="AD74" s="13"/>
-      <c r="AE74" s="13"/>
-      <c r="AF74" s="14"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="52"/>
+      <c r="R71" s="52"/>
+      <c r="S71" s="52"/>
+      <c r="T71" s="52"/>
+      <c r="U71" s="52"/>
+      <c r="V71" s="52"/>
+      <c r="W71" s="52"/>
+      <c r="X71" s="52"/>
+      <c r="Y71" s="52"/>
+      <c r="Z71" s="52"/>
+      <c r="AA71" s="52"/>
+      <c r="AB71" s="52"/>
+      <c r="AC71" s="52"/>
+      <c r="AD71" s="52"/>
+      <c r="AE71" s="52"/>
+      <c r="AF71" s="62"/>
+    </row>
+    <row r="72" spans="1:32" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B72" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" s="52"/>
+      <c r="D72" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="52"/>
+      <c r="R72" s="52"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="52"/>
+      <c r="U72" s="52"/>
+      <c r="V72" s="52"/>
+      <c r="W72" s="52"/>
+      <c r="X72" s="52"/>
+      <c r="Y72" s="52"/>
+      <c r="Z72" s="52"/>
+      <c r="AA72" s="52"/>
+      <c r="AB72" s="52"/>
+      <c r="AC72" s="52"/>
+      <c r="AD72" s="52"/>
+      <c r="AE72" s="52"/>
+      <c r="AF72" s="62"/>
+    </row>
+    <row r="73" spans="1:32" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B73" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" s="52"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
+      <c r="O73" s="52"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="52"/>
+      <c r="R73" s="52"/>
+      <c r="S73" s="52"/>
+      <c r="T73" s="52"/>
+      <c r="U73" s="52"/>
+      <c r="V73" s="52"/>
+      <c r="W73" s="52"/>
+      <c r="X73" s="52"/>
+      <c r="Y73" s="52"/>
+      <c r="Z73" s="52"/>
+      <c r="AA73" s="52"/>
+      <c r="AB73" s="52"/>
+      <c r="AC73" s="52"/>
+      <c r="AD73" s="52"/>
+      <c r="AE73" s="52"/>
+      <c r="AF73" s="62"/>
+    </row>
+    <row r="74" spans="1:32" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" s="52"/>
+      <c r="D74" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="52"/>
+      <c r="R74" s="52"/>
+      <c r="S74" s="52"/>
+      <c r="T74" s="52"/>
+      <c r="U74" s="52"/>
+      <c r="V74" s="52"/>
+      <c r="W74" s="52"/>
+      <c r="X74" s="52"/>
+      <c r="Y74" s="52"/>
+      <c r="Z74" s="52"/>
+      <c r="AA74" s="52"/>
+      <c r="AB74" s="52"/>
+      <c r="AC74" s="52"/>
+      <c r="AD74" s="52"/>
+      <c r="AE74" s="52"/>
+      <c r="AF74" s="62"/>
     </row>
     <row r="75" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="E75" s="12">
+        <v>1</v>
+      </c>
+      <c r="F75" s="12">
+        <v>400</v>
+      </c>
+      <c r="G75" s="13">
+        <v>48</v>
+      </c>
       <c r="H75" s="19"/>
-      <c r="I75" s="13"/>
+      <c r="I75" s="13">
+        <v>20</v>
+      </c>
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
@@ -5844,20 +5872,28 @@
     </row>
     <row r="76" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="E76" s="12">
+        <v>1</v>
+      </c>
+      <c r="F76" s="12">
+        <v>400</v>
+      </c>
+      <c r="G76" s="13">
+        <v>48</v>
+      </c>
       <c r="H76" s="19"/>
-      <c r="I76" s="13"/>
+      <c r="I76" s="13">
+        <v>40</v>
+      </c>
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
@@ -5884,14 +5920,14 @@
     </row>
     <row r="77" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="11" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="E77" s="17">
         <v>0</v>
@@ -5903,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="19"/>
-      <c r="I77" s="13">
+      <c r="I77" s="15">
         <v>0</v>
       </c>
       <c r="J77" s="13"/>
@@ -5935,25 +5971,17 @@
         <v>25</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E78" s="17">
-        <v>0</v>
-      </c>
-      <c r="F78" s="18">
-        <v>0</v>
-      </c>
-      <c r="G78" s="15">
-        <v>0</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="15"/>
       <c r="H78" s="19"/>
-      <c r="I78" s="13">
-        <v>0</v>
-      </c>
+      <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
@@ -5979,29 +6007,21 @@
       <c r="AF78" s="14"/>
     </row>
     <row r="79" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E79" s="17">
-        <v>0</v>
-      </c>
-      <c r="F79" s="18">
-        <v>0</v>
-      </c>
-      <c r="G79" s="15">
-        <v>0</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E79" s="17"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="15"/>
       <c r="H79" s="19"/>
-      <c r="I79" s="13">
-        <v>0</v>
-      </c>
+      <c r="I79" s="13"/>
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
@@ -6027,67 +6047,61 @@
       <c r="AF79" s="14"/>
     </row>
     <row r="80" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
-      <c r="B80" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="24"/>
-      <c r="T80" s="24"/>
-      <c r="U80" s="24"/>
-      <c r="V80" s="24"/>
-      <c r="W80" s="24"/>
-      <c r="X80" s="24"/>
-      <c r="Y80" s="24"/>
-      <c r="Z80" s="24"/>
-      <c r="AA80" s="24"/>
-      <c r="AB80" s="24"/>
-      <c r="AC80" s="24"/>
-      <c r="AD80" s="24"/>
-      <c r="AE80" s="24"/>
-      <c r="AF80" s="25"/>
+      <c r="A80" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="17"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
+      <c r="Y80" s="13"/>
+      <c r="Z80" s="13"/>
+      <c r="AA80" s="13"/>
+      <c r="AB80" s="13"/>
+      <c r="AC80" s="13"/>
+      <c r="AD80" s="13"/>
+      <c r="AE80" s="13"/>
+      <c r="AF80" s="14"/>
     </row>
     <row r="81" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E81" s="12">
-        <v>1</v>
-      </c>
-      <c r="F81" s="12">
-        <v>0</v>
-      </c>
-      <c r="G81" s="13">
-        <v>720</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="15"/>
       <c r="H81" s="19"/>
-      <c r="I81" s="13">
-        <v>0</v>
-      </c>
+      <c r="I81" s="13"/>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
@@ -6117,25 +6131,17 @@
         <v>25</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E82" s="17">
-        <v>1</v>
-      </c>
-      <c r="F82" s="18">
-        <v>0</v>
-      </c>
-      <c r="G82" s="15">
-        <v>360</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="15"/>
       <c r="H82" s="19"/>
-      <c r="I82" s="15">
-        <v>0</v>
-      </c>
+      <c r="I82" s="13"/>
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
@@ -6165,19 +6171,19 @@
         <v>25</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E83" s="12">
+        <v>124</v>
+      </c>
+      <c r="E83" s="17">
         <v>0</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="18">
         <v>0</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G83" s="15">
         <v>0</v>
       </c>
       <c r="H83" s="19"/>
@@ -6213,19 +6219,19 @@
         <v>25</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E84" s="12">
+        <v>135</v>
+      </c>
+      <c r="E84" s="17">
         <v>0</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="18">
         <v>0</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="15">
         <v>0</v>
       </c>
       <c r="H84" s="19"/>
@@ -6257,23 +6263,23 @@
       <c r="AF84" s="14"/>
     </row>
     <row r="85" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E85" s="12">
+        <v>136</v>
+      </c>
+      <c r="E85" s="17">
         <v>0</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="18">
         <v>0</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G85" s="15">
         <v>0</v>
       </c>
       <c r="H85" s="19"/>
@@ -6305,52 +6311,330 @@
       <c r="AF85" s="14"/>
     </row>
     <row r="86" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="57"/>
+      <c r="B86" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" s="20"/>
+      <c r="D86" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="24"/>
+      <c r="U86" s="24"/>
+      <c r="V86" s="24"/>
+      <c r="W86" s="24"/>
+      <c r="X86" s="24"/>
+      <c r="Y86" s="24"/>
+      <c r="Z86" s="24"/>
+      <c r="AA86" s="24"/>
+      <c r="AB86" s="24"/>
+      <c r="AC86" s="24"/>
+      <c r="AD86" s="24"/>
+      <c r="AE86" s="24"/>
+      <c r="AF86" s="25"/>
+    </row>
+    <row r="87" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B87" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="12">
+        <v>1</v>
+      </c>
+      <c r="F87" s="12">
+        <v>0</v>
+      </c>
+      <c r="G87" s="13">
+        <v>720</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="13">
+        <v>0</v>
+      </c>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="13"/>
+      <c r="W87" s="13"/>
+      <c r="X87" s="13"/>
+      <c r="Y87" s="13"/>
+      <c r="Z87" s="13"/>
+      <c r="AA87" s="13"/>
+      <c r="AB87" s="13"/>
+      <c r="AC87" s="13"/>
+      <c r="AD87" s="13"/>
+      <c r="AE87" s="13"/>
+      <c r="AF87" s="14"/>
+    </row>
+    <row r="88" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="17">
+        <v>1</v>
+      </c>
+      <c r="F88" s="18">
+        <v>0</v>
+      </c>
+      <c r="G88" s="15">
+        <v>360</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="15">
+        <v>0</v>
+      </c>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="13"/>
+      <c r="X88" s="13"/>
+      <c r="Y88" s="13"/>
+      <c r="Z88" s="13"/>
+      <c r="AA88" s="13"/>
+      <c r="AB88" s="13"/>
+      <c r="AC88" s="13"/>
+      <c r="AD88" s="13"/>
+      <c r="AE88" s="13"/>
+      <c r="AF88" s="14"/>
+    </row>
+    <row r="89" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" s="12">
+        <v>0</v>
+      </c>
+      <c r="F89" s="12">
+        <v>0</v>
+      </c>
+      <c r="G89" s="13">
+        <v>0</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="13">
+        <v>0</v>
+      </c>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="13"/>
+      <c r="X89" s="13"/>
+      <c r="Y89" s="13"/>
+      <c r="Z89" s="13"/>
+      <c r="AA89" s="13"/>
+      <c r="AB89" s="13"/>
+      <c r="AC89" s="13"/>
+      <c r="AD89" s="13"/>
+      <c r="AE89" s="13"/>
+      <c r="AF89" s="14"/>
+    </row>
+    <row r="90" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="12">
+        <v>0</v>
+      </c>
+      <c r="F90" s="12">
+        <v>0</v>
+      </c>
+      <c r="G90" s="13">
+        <v>0</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="13">
+        <v>0</v>
+      </c>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="13"/>
+      <c r="X90" s="13"/>
+      <c r="Y90" s="13"/>
+      <c r="Z90" s="13"/>
+      <c r="AA90" s="13"/>
+      <c r="AB90" s="13"/>
+      <c r="AC90" s="13"/>
+      <c r="AD90" s="13"/>
+      <c r="AE90" s="13"/>
+      <c r="AF90" s="14"/>
+    </row>
+    <row r="91" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E91" s="12">
+        <v>0</v>
+      </c>
+      <c r="F91" s="12">
+        <v>0</v>
+      </c>
+      <c r="G91" s="13">
+        <v>0</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91" s="13">
+        <v>0</v>
+      </c>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="13"/>
+      <c r="W91" s="13"/>
+      <c r="X91" s="13"/>
+      <c r="Y91" s="13"/>
+      <c r="Z91" s="13"/>
+      <c r="AA91" s="13"/>
+      <c r="AB91" s="13"/>
+      <c r="AC91" s="13"/>
+      <c r="AD91" s="13"/>
+      <c r="AE91" s="13"/>
+      <c r="AF91" s="14"/>
+    </row>
+    <row r="92" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="11" t="s">
+      <c r="C92" s="10"/>
+      <c r="D92" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E92" s="12">
         <v>0</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F92" s="12">
         <v>0</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G92" s="13">
         <v>0</v>
       </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="13">
+      <c r="H92" s="19"/>
+      <c r="I92" s="13">
         <v>0</v>
       </c>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
-      <c r="U86" s="13"/>
-      <c r="V86" s="13"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="13"/>
-      <c r="Y86" s="13"/>
-      <c r="Z86" s="13"/>
-      <c r="AA86" s="13"/>
-      <c r="AB86" s="13"/>
-      <c r="AC86" s="13"/>
-      <c r="AD86" s="13"/>
-      <c r="AE86" s="13"/>
-      <c r="AF86" s="14"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="13"/>
+      <c r="V92" s="13"/>
+      <c r="W92" s="13"/>
+      <c r="X92" s="13"/>
+      <c r="Y92" s="13"/>
+      <c r="Z92" s="13"/>
+      <c r="AA92" s="13"/>
+      <c r="AB92" s="13"/>
+      <c r="AC92" s="13"/>
+      <c r="AD92" s="13"/>
+      <c r="AE92" s="13"/>
+      <c r="AF92" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
